--- a/INTLINE/data/134/DEUSTATIS/National accounts - Use of the gross domestic product years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Use of the gross domestic product years.xlsx
@@ -228,7 +228,7 @@
     <t>resources.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:37:53</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:44:29</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1397,7 @@
         <v>2462.553</v>
       </c>
       <c r="AG6" t="n" s="10">
-        <v>2564.327</v>
+        <v>2566.91</v>
       </c>
     </row>
     <row r="7">
@@ -1498,7 +1498,7 @@
         <v>2180.135</v>
       </c>
       <c r="AG7" t="n" s="10">
-        <v>2279.27</v>
+        <v>2281.38</v>
       </c>
     </row>
     <row r="8">
@@ -1599,7 +1599,7 @@
         <v>1707.978</v>
       </c>
       <c r="AG8" t="n" s="10">
-        <v>1762.986</v>
+        <v>1766.64</v>
       </c>
     </row>
     <row r="9">
@@ -1700,7 +1700,7 @@
         <v>1656.162</v>
       </c>
       <c r="AG9" t="n" s="10">
-        <v>1709.79</v>
+        <v>1713.421</v>
       </c>
     </row>
     <row r="10">
@@ -1801,7 +1801,7 @@
         <v>51.816</v>
       </c>
       <c r="AG10" t="n" s="10">
-        <v>53.196</v>
+        <v>53.219</v>
       </c>
     </row>
     <row r="11">
@@ -1902,7 +1902,7 @@
         <v>754.575</v>
       </c>
       <c r="AG11" t="n" s="10">
-        <v>801.341</v>
+        <v>800.27</v>
       </c>
     </row>
     <row r="12">
@@ -2003,7 +2003,7 @@
         <v>472.157</v>
       </c>
       <c r="AG12" t="n" s="10">
-        <v>516.284</v>
+        <v>514.74</v>
       </c>
     </row>
     <row r="13">
@@ -2104,7 +2104,7 @@
         <v>282.418</v>
       </c>
       <c r="AG13" t="n" s="10">
-        <v>285.057</v>
+        <v>285.53</v>
       </c>
     </row>
     <row r="14">
@@ -2205,7 +2205,7 @@
         <v>712.206</v>
       </c>
       <c r="AG14" t="n" s="10">
-        <v>808.754</v>
+        <v>811.356</v>
       </c>
     </row>
     <row r="15">
@@ -2306,7 +2306,7 @@
         <v>735.869</v>
       </c>
       <c r="AG15" t="n" s="10">
-        <v>783.896</v>
+        <v>781.488</v>
       </c>
     </row>
     <row r="16">
@@ -2407,7 +2407,7 @@
         <v>216.903</v>
       </c>
       <c r="AG16" t="n" s="10">
-        <v>228.165</v>
+        <v>228.397</v>
       </c>
     </row>
     <row r="17">
@@ -2508,7 +2508,7 @@
         <v>380.064</v>
       </c>
       <c r="AG17" t="n" s="10">
-        <v>414.26</v>
+        <v>411.61</v>
       </c>
     </row>
     <row r="18">
@@ -2609,7 +2609,7 @@
         <v>138.902</v>
       </c>
       <c r="AG18" t="n" s="10">
-        <v>141.471</v>
+        <v>141.481</v>
       </c>
     </row>
     <row r="19">
@@ -2710,7 +2710,7 @@
         <v>-23.663</v>
       </c>
       <c r="AG19" t="n" s="10">
-        <v>24.858</v>
+        <v>29.868</v>
       </c>
     </row>
     <row r="20">
@@ -2811,7 +2811,7 @@
         <v>3174.759</v>
       </c>
       <c r="AG20" t="n" s="10">
-        <v>3373.081</v>
+        <v>3378.266</v>
       </c>
     </row>
     <row r="21">
@@ -2912,7 +2912,7 @@
         <v>192.801</v>
       </c>
       <c r="AG21" t="n" s="10">
-        <v>197.539</v>
+        <v>192.354</v>
       </c>
     </row>
     <row r="22">
@@ -3013,7 +3013,7 @@
         <v>1462.09</v>
       </c>
       <c r="AG22" t="n" s="10">
-        <v>1694.583</v>
+        <v>1690.567</v>
       </c>
     </row>
     <row r="23">
@@ -3114,7 +3114,7 @@
         <v>1269.289</v>
       </c>
       <c r="AG23" t="n" s="10">
-        <v>1497.044</v>
+        <v>1498.213</v>
       </c>
     </row>
     <row r="24">
@@ -3321,7 +3321,7 @@
         <v>104.36</v>
       </c>
       <c r="AG26" t="n" s="10">
-        <v>105.46</v>
+        <v>105.54</v>
       </c>
     </row>
     <row r="27">
@@ -3422,7 +3422,7 @@
         <v>102.31</v>
       </c>
       <c r="AG27" t="n" s="10">
-        <v>103.71</v>
+        <v>103.79</v>
       </c>
     </row>
     <row r="28">
@@ -3523,7 +3523,7 @@
         <v>100.76</v>
       </c>
       <c r="AG28" t="n" s="10">
-        <v>100.9</v>
+        <v>101.09</v>
       </c>
     </row>
     <row r="29">
@@ -3624,7 +3624,7 @@
         <v>100.71</v>
       </c>
       <c r="AG29" t="n" s="10">
-        <v>100.73</v>
+        <v>100.92</v>
       </c>
     </row>
     <row r="30">
@@ -3725,7 +3725,7 @@
         <v>102.58</v>
       </c>
       <c r="AG30" t="n" s="10">
-        <v>106.87</v>
+        <v>106.76</v>
       </c>
     </row>
     <row r="31">
@@ -3826,7 +3826,7 @@
         <v>113.86</v>
       </c>
       <c r="AG31" t="n" s="10">
-        <v>117.4</v>
+        <v>117.21</v>
       </c>
     </row>
     <row r="32">
@@ -3927,7 +3927,7 @@
         <v>108.65</v>
       </c>
       <c r="AG32" t="n" s="10">
-        <v>114.94</v>
+        <v>114.56</v>
       </c>
     </row>
     <row r="33">
@@ -4028,7 +4028,7 @@
         <v>123.48</v>
       </c>
       <c r="AG33" t="n" s="10">
-        <v>121.8</v>
+        <v>121.95</v>
       </c>
     </row>
     <row r="34">
@@ -4129,7 +4129,7 @@
         <v>108.39</v>
       </c>
       <c r="AG34" t="n" s="10">
-        <v>115.05</v>
+        <v>115.12</v>
       </c>
     </row>
     <row r="35">
@@ -4230,7 +4230,7 @@
         <v>109.67</v>
       </c>
       <c r="AG35" t="n" s="10">
-        <v>111.27</v>
+        <v>110.91</v>
       </c>
     </row>
     <row r="36">
@@ -4331,7 +4331,7 @@
         <v>100.46</v>
       </c>
       <c r="AG36" t="n" s="10">
-        <v>103.86</v>
+        <v>103.8</v>
       </c>
     </row>
     <row r="37">
@@ -4432,7 +4432,7 @@
         <v>111.43</v>
       </c>
       <c r="AG37" t="n" s="10">
-        <v>112.16</v>
+        <v>111.48</v>
       </c>
     </row>
     <row r="38">
@@ -4735,7 +4735,7 @@
         <v>105.19</v>
       </c>
       <c r="AG40" t="n" s="10">
-        <v>107.5</v>
+        <v>107.58</v>
       </c>
     </row>
     <row r="41">
@@ -4937,7 +4937,7 @@
         <v>100.81</v>
       </c>
       <c r="AG42" t="n" s="10">
-        <v>110.82</v>
+        <v>110.51</v>
       </c>
     </row>
     <row r="43">
@@ -5038,7 +5038,7 @@
         <v>107.41</v>
       </c>
       <c r="AG43" t="n" s="10">
-        <v>117.35</v>
+        <v>117.18</v>
       </c>
     </row>
     <row r="44">
@@ -5245,7 +5245,7 @@
         <v>2294.748</v>
       </c>
       <c r="AG46" t="n" s="10">
-        <v>2318.936</v>
+        <v>2320.695</v>
       </c>
     </row>
     <row r="47">
@@ -5346,7 +5346,7 @@
         <v>2032.278</v>
       </c>
       <c r="AG47" t="n" s="10">
-        <v>2060.087</v>
+        <v>2061.676</v>
       </c>
     </row>
     <row r="48">
@@ -5447,7 +5447,7 @@
         <v>1615.152</v>
       </c>
       <c r="AG48" t="n" s="10">
-        <v>1617.396</v>
+        <v>1620.441</v>
       </c>
     </row>
     <row r="49">
@@ -5548,7 +5548,7 @@
         <v>1570.489</v>
       </c>
       <c r="AG49" t="n" s="10">
-        <v>1570.801</v>
+        <v>1573.764</v>
       </c>
     </row>
     <row r="50">
@@ -5649,7 +5649,7 @@
         <v>44.676</v>
       </c>
       <c r="AG50" t="n" s="10">
-        <v>46.544</v>
+        <v>46.496</v>
       </c>
     </row>
     <row r="51">
@@ -5750,7 +5750,7 @@
         <v>678.501</v>
       </c>
       <c r="AG51" t="n" s="10">
-        <v>699.596</v>
+        <v>698.464</v>
       </c>
     </row>
     <row r="52">
@@ -5851,7 +5851,7 @@
         <v>416.589</v>
       </c>
       <c r="AG52" t="n" s="10">
-        <v>440.706</v>
+        <v>439.249</v>
       </c>
     </row>
     <row r="53">
@@ -5952,7 +5952,7 @@
         <v>262.376</v>
       </c>
       <c r="AG53" t="n" s="10">
-        <v>258.807</v>
+        <v>259.125</v>
       </c>
     </row>
     <row r="54">
@@ -6053,7 +6053,7 @@
         <v>647.584</v>
       </c>
       <c r="AG54" t="n" s="10">
-        <v>687.374</v>
+        <v>687.793</v>
       </c>
     </row>
     <row r="55">
@@ -6154,7 +6154,7 @@
         <v>664.42</v>
       </c>
       <c r="AG55" t="n" s="10">
-        <v>674.114</v>
+        <v>671.933</v>
       </c>
     </row>
     <row r="56">
@@ -6255,7 +6255,7 @@
         <v>207.895</v>
       </c>
       <c r="AG56" t="n" s="10">
-        <v>214.931</v>
+        <v>214.807</v>
       </c>
     </row>
     <row r="57">
@@ -6356,7 +6356,7 @@
         <v>324.532</v>
       </c>
       <c r="AG57" t="n" s="10">
-        <v>326.658</v>
+        <v>324.678</v>
       </c>
     </row>
     <row r="58">
@@ -6659,7 +6659,7 @@
         <v>2941.464</v>
       </c>
       <c r="AG60" t="n" s="10">
-        <v>3006.059</v>
+        <v>3008.296</v>
       </c>
     </row>
     <row r="61">
@@ -6861,7 +6861,7 @@
         <v>1431.407</v>
       </c>
       <c r="AG62" t="n" s="10">
-        <v>1573.54</v>
+        <v>1569.138</v>
       </c>
     </row>
     <row r="63">
@@ -6962,7 +6962,7 @@
         <v>1278.243</v>
       </c>
       <c r="AG63" t="n" s="10">
-        <v>1396.535</v>
+        <v>1394.512</v>
       </c>
     </row>
     <row r="64">
@@ -7169,7 +7169,7 @@
         <v>2427.356</v>
       </c>
       <c r="AG66" t="n" s="10">
-        <v>2488.536</v>
+        <v>2490.439</v>
       </c>
     </row>
     <row r="67">
@@ -7270,7 +7270,7 @@
         <v>2149.431</v>
       </c>
       <c r="AG67" t="n" s="10">
-        <v>2209.959</v>
+        <v>2211.512</v>
       </c>
     </row>
     <row r="68">
@@ -7371,7 +7371,7 @@
         <v>1697.178</v>
       </c>
       <c r="AG68" t="n" s="10">
-        <v>1710.474</v>
+        <v>1713.668</v>
       </c>
     </row>
     <row r="69">
@@ -7472,7 +7472,7 @@
         <v>1648.964</v>
       </c>
       <c r="AG69" t="n" s="10">
-        <v>1656.491</v>
+        <v>1659.739</v>
       </c>
     </row>
     <row r="70">
@@ -7573,7 +7573,7 @@
         <v>48.214</v>
       </c>
       <c r="AG70" t="n" s="10">
-        <v>53.983</v>
+        <v>53.929</v>
       </c>
     </row>
     <row r="71">
@@ -7674,7 +7674,7 @@
         <v>730.178</v>
       </c>
       <c r="AG71" t="n" s="10">
-        <v>778.062</v>
+        <v>776.771</v>
       </c>
     </row>
     <row r="72">
@@ -7775,7 +7775,7 @@
         <v>452.253</v>
       </c>
       <c r="AG72" t="n" s="10">
-        <v>499.485</v>
+        <v>497.844</v>
       </c>
     </row>
     <row r="73">
@@ -7876,7 +7876,7 @@
         <v>277.925</v>
       </c>
       <c r="AG73" t="n" s="10">
-        <v>278.577</v>
+        <v>278.927</v>
       </c>
     </row>
     <row r="74">
@@ -7977,7 +7977,7 @@
         <v>720.099</v>
       </c>
       <c r="AG74" t="n" s="10">
-        <v>755.929</v>
+        <v>756.426</v>
       </c>
     </row>
     <row r="75">
@@ -8078,7 +8078,7 @@
         <v>725.699</v>
       </c>
       <c r="AG75" t="n" s="10">
-        <v>746.624</v>
+        <v>744.2</v>
       </c>
     </row>
     <row r="76">
@@ -8179,7 +8179,7 @@
         <v>214.118</v>
       </c>
       <c r="AG76" t="n" s="10">
-        <v>224.256</v>
+        <v>224.119</v>
       </c>
     </row>
     <row r="77">
@@ -8280,7 +8280,7 @@
         <v>373.163</v>
       </c>
       <c r="AG77" t="n" s="10">
-        <v>382.534</v>
+        <v>380.237</v>
       </c>
     </row>
     <row r="78">
@@ -8381,7 +8381,7 @@
         <v>138.418</v>
       </c>
       <c r="AG78" t="n" s="10">
-        <v>139.834</v>
+        <v>139.844</v>
       </c>
     </row>
     <row r="79">
@@ -8482,7 +8482,7 @@
         <v>-5.6</v>
       </c>
       <c r="AG79" t="n" s="10">
-        <v>9.305</v>
+        <v>12.226</v>
       </c>
     </row>
     <row r="80">
@@ -8583,7 +8583,7 @@
         <v>3147.455</v>
       </c>
       <c r="AG80" t="n" s="10">
-        <v>3244.465</v>
+        <v>3246.865</v>
       </c>
     </row>
     <row r="81">
@@ -8684,7 +8684,7 @@
         <v>167.363</v>
       </c>
       <c r="AG81" t="n" s="10">
-        <v>220.551</v>
+        <v>218.151</v>
       </c>
     </row>
     <row r="82">
@@ -8785,7 +8785,7 @@
         <v>1468.411</v>
       </c>
       <c r="AG82" t="n" s="10">
-        <v>1607.34</v>
+        <v>1602.897</v>
       </c>
     </row>
     <row r="83">
@@ -8886,7 +8886,7 @@
         <v>1301.048</v>
       </c>
       <c r="AG83" t="n" s="10">
-        <v>1386.789</v>
+        <v>1384.746</v>
       </c>
     </row>
     <row r="84">
@@ -9057,7 +9057,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:37:58&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:44:36&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/National accounts - Use of the gross domestic product years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Use of the gross domestic product years.xlsx
@@ -228,7 +228,7 @@
     <t>resources.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:44:29</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 05:34:45</t>
   </si>
 </sst>
 </file>
@@ -9057,7 +9057,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:44:36&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 05:34:51&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>